--- a/data/default_dict.xlsx
+++ b/data/default_dict.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,92 +69,92 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>cool_pos</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>cool_neg</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>innov_pos</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>innov_neg</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>socresp_pos</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>socresp_neg</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>exciting_pos</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>exciting_neg</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>price_pos</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>price_neg</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>goodsq_pos</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>goodsq_neg</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
         <is>
           <t>squality_pos</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>squality_neg</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>goodsq_pos</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>goodsq_neg</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cool_pos</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>cool_neg</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>exciting_pos</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>exciting_neg</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>innov_pos</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>innov_neg</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>socresp_pos</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>socresp_neg</t>
-        </is>
-      </c>
       <c r="P1" t="inlineStr">
         <is>
+          <t>friendly_pos</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>friendly_neg</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>comm_pos</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>comm_neg</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>friendly_pos</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>friendly_neg</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -181,11 +181,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>afford</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -209,7 +209,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
         <v>0.0</v>
@@ -254,11 +254,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>afford</t>
+          <t>annoi</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -279,7 +279,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -327,11 +327,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>inexpen</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.0</v>
@@ -400,11 +400,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>deal</t>
+          <t>arrog</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -449,7 +449,7 @@
         <v>0.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R5" t="n">
         <v>0.0</v>
@@ -473,11 +473,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>attent</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -513,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O6" t="n">
         <v>0.0</v>
@@ -546,11 +546,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bargain</t>
+          <t>authent</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -610,7 +610,7 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
@@ -619,11 +619,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>thrifti</t>
+          <t>bore</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -632,7 +632,7 @@
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -692,11 +692,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>boycott</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -711,7 +711,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -765,11 +765,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>econom</t>
+          <t>care</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -823,7 +823,7 @@
         <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U10" t="n">
         <v>0.0</v>
@@ -838,7 +838,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>frugal</t>
+          <t>chic</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -911,7 +911,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>joi</t>
+          <t>chill</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -984,11 +984,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R13" t="n">
         <v>0.0</v>
@@ -1057,11 +1057,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pleas</t>
+          <t>connect</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -1115,7 +1115,7 @@
         <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
@@ -1130,11 +1130,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sale</t>
+          <t>craftsmanship</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -1164,7 +1164,7 @@
         <v>0.0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M15" t="n">
         <v>0.0</v>
@@ -1203,17 +1203,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>expen</t>
+          <t>creativ</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
@@ -1276,14 +1276,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pricei</t>
+          <t>credibl</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
@@ -1340,7 +1340,7 @@
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W17" t="n">
         <v>0.0</v>
@@ -1349,14 +1349,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>costli</t>
+          <t>defect</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -1386,7 +1386,7 @@
         <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -1422,14 +1422,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>overpr</t>
+          <t>depend</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
@@ -1486,7 +1486,7 @@
         <v>0.0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W19" t="n">
         <v>0.0</v>
@@ -1495,7 +1495,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>unfair</t>
+          <t>disappoint</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1568,14 +1568,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>disconnect</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
@@ -1623,7 +1623,7 @@
         <v>0.0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -1641,14 +1641,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>excess</t>
+          <t>dishonest</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
@@ -1708,20 +1708,20 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>extravag</t>
+          <t>dismiss</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -1763,7 +1763,7 @@
         <v>0.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R23" t="n">
         <v>0.0</v>
@@ -1787,14 +1787,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>distrust</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
@@ -1854,20 +1854,20 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>exclus</t>
+          <t>durabl</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
@@ -1894,7 +1894,7 @@
         <v>0.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -1933,14 +1933,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>outrag</t>
+          <t>dynamic</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
@@ -1955,7 +1955,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -2006,7 +2006,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>effici</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2016,7 +2016,7 @@
         <v>0.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n">
         <v>0.0</v>
@@ -2046,7 +2046,7 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O27" t="n">
         <v>0.0</v>
@@ -2079,7 +2079,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>great</t>
+          <t>eleg</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2089,7 +2089,7 @@
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E28" t="n">
         <v>0.0</v>
@@ -2113,7 +2113,7 @@
         <v>0.0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -2152,7 +2152,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>fast</t>
+          <t>elitist</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2162,7 +2162,7 @@
         <v>0.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
         <v>0.0</v>
@@ -2207,7 +2207,7 @@
         <v>0.0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -2225,7 +2225,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>energ</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2235,7 +2235,7 @@
         <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" t="n">
         <v>0.0</v>
@@ -2247,7 +2247,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -2298,7 +2298,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>attent</t>
+          <t>engag</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2308,7 +2308,7 @@
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E31" t="n">
         <v>0.0</v>
@@ -2350,7 +2350,7 @@
         <v>0.0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S31" t="n">
         <v>0.0</v>
@@ -2371,7 +2371,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>ethic</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2381,13 +2381,13 @@
         <v>0.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="n">
         <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -2444,17 +2444,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>easi</t>
+          <t>exclus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E33" t="n">
         <v>0.0</v>
@@ -2517,7 +2517,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>polit</t>
+          <t>expens</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2527,7 +2527,7 @@
         <v>0.0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n">
         <v>0.0</v>
@@ -2548,7 +2548,7 @@
         <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -2590,7 +2590,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2600,7 +2600,7 @@
         <v>0.0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E35" t="n">
         <v>0.0</v>
@@ -2618,7 +2618,7 @@
         <v>0.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -2663,7 +2663,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>fake</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2673,7 +2673,7 @@
         <v>0.0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E36" t="n">
         <v>0.0</v>
@@ -2730,13 +2730,13 @@
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>fresh</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2809,7 +2809,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>compet</t>
+          <t>friendli</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2819,7 +2819,7 @@
         <v>0.0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
         <v>0.0</v>
@@ -2855,7 +2855,7 @@
         <v>0.0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q38" t="n">
         <v>0.0</v>
@@ -2882,20 +2882,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>rude</t>
+          <t>frustrat</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D39" t="n">
         <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -2955,7 +2955,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>frustrat</t>
+          <t>glamor</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2968,7 +2968,7 @@
         <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -2977,7 +2977,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -3028,7 +3028,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>terribl</t>
+          <t>greenwash</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3041,13 +3041,13 @@
         <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n">
         <v>0.0</v>
@@ -3101,7 +3101,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>slow</t>
+          <t>help</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3114,7 +3114,7 @@
         <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -3147,7 +3147,7 @@
         <v>0.0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q42" t="n">
         <v>0.0</v>
@@ -3174,7 +3174,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>careless</t>
+          <t>honest</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3187,7 +3187,7 @@
         <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -3238,7 +3238,7 @@
         <v>0.0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W43" t="n">
         <v>0.0</v>
@@ -3247,7 +3247,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>incompet</t>
+          <t>hypocrisi</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3260,13 +3260,13 @@
         <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -3320,7 +3320,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>disrespect</t>
+          <t>ignor</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3333,7 +3333,7 @@
         <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -3381,7 +3381,7 @@
         <v>0.0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V45" t="n">
         <v>0.0</v>
@@ -3393,7 +3393,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>aw</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3406,10 +3406,10 @@
         <v>0.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
         <v>0.0</v>
@@ -3466,7 +3466,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>lazi</t>
+          <t>imperson</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3479,7 +3479,7 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -3527,7 +3527,7 @@
         <v>0.0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V47" t="n">
         <v>0.0</v>
@@ -3539,7 +3539,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>irrit</t>
+          <t>impolit</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3552,7 +3552,7 @@
         <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -3588,7 +3588,7 @@
         <v>0.0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R48" t="n">
         <v>0.0</v>
@@ -3612,7 +3612,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>horribl</t>
+          <t>impress</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3622,10 +3622,10 @@
         <v>0.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -3685,7 +3685,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>angri</t>
+          <t>inclus</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3698,7 +3698,7 @@
         <v>0.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -3737,7 +3737,7 @@
         <v>0.0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S50" t="n">
         <v>0.0</v>
@@ -3758,7 +3758,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>innov</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3768,13 +3768,13 @@
         <v>0.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E51" t="n">
         <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -3831,7 +3831,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>durabl</t>
+          <t>insensit</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3847,10 +3847,10 @@
         <v>0.0</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
@@ -3904,7 +3904,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>function</t>
+          <t>inspir</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3914,13 +3914,13 @@
         <v>0.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E53" t="n">
         <v>0.0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
@@ -3977,7 +3977,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>excel</t>
+          <t>invit</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3993,7 +3993,7 @@
         <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
@@ -4023,7 +4023,7 @@
         <v>0.0</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q54" t="n">
         <v>0.0</v>
@@ -4050,7 +4050,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>perfect</t>
+          <t>irrespons</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4066,10 +4066,10 @@
         <v>0.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H55" t="n">
         <v>0.0</v>
@@ -4123,7 +4123,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>isol</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4139,7 +4139,7 @@
         <v>0.0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G56" t="n">
         <v>0.0</v>
@@ -4178,7 +4178,7 @@
         <v>0.0</v>
       </c>
       <c r="S56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T56" t="n">
         <v>0.0</v>
@@ -4196,7 +4196,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>beauti</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4212,7 +4212,7 @@
         <v>0.0</v>
       </c>
       <c r="F57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G57" t="n">
         <v>0.0</v>
@@ -4242,7 +4242,7 @@
         <v>0.0</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q57" t="n">
         <v>0.0</v>
@@ -4269,7 +4269,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>letdown</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4285,7 +4285,7 @@
         <v>0.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G58" t="n">
         <v>0.0</v>
@@ -4294,7 +4294,7 @@
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J58" t="n">
         <v>0.0</v>
@@ -4342,7 +4342,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>valu</t>
+          <t>loyalti</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4358,7 +4358,7 @@
         <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
@@ -4400,7 +4400,7 @@
         <v>0.0</v>
       </c>
       <c r="T59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U59" t="n">
         <v>0.0</v>
@@ -4415,7 +4415,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sturdi</t>
+          <t>luxuri</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4431,7 +4431,7 @@
         <v>0.0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G60" t="n">
         <v>0.0</v>
@@ -4449,7 +4449,7 @@
         <v>0.0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M60" t="n">
         <v>0.0</v>
@@ -4488,7 +4488,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>luxuri</t>
+          <t>mislead</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4504,7 +4504,7 @@
         <v>0.0</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -4555,13 +4555,13 @@
         <v>0.0</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>worth</t>
+          <t>modern</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4571,13 +4571,13 @@
         <v>0.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E62" t="n">
         <v>0.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G62" t="n">
         <v>0.0</v>
@@ -4634,7 +4634,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>long-last</t>
+          <t>outdat</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4647,10 +4647,10 @@
         <v>0.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
@@ -4707,14 +4707,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>overpr</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D64" t="n">
         <v>0.0</v>
@@ -4723,7 +4723,7 @@
         <v>0.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="n">
         <v>0.0</v>
@@ -4780,7 +4780,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>satisfi</t>
+          <t>overr</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4796,7 +4796,7 @@
         <v>0.0</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G65" t="n">
         <v>0.0</v>
@@ -4805,7 +4805,7 @@
         <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" t="n">
         <v>0.0</v>
@@ -4853,7 +4853,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>impress</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4869,7 +4869,7 @@
         <v>0.0</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G66" t="n">
         <v>0.0</v>
@@ -4893,7 +4893,7 @@
         <v>0.0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O66" t="n">
         <v>0.0</v>
@@ -4926,7 +4926,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>uniqu</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4942,7 +4942,7 @@
         <v>0.0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G67" t="n">
         <v>0.0</v>
@@ -4963,7 +4963,7 @@
         <v>0.0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N67" t="n">
         <v>0.0</v>
@@ -4999,7 +4999,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>clean</t>
+          <t>posit</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5015,7 +5015,7 @@
         <v>0.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G68" t="n">
         <v>0.0</v>
@@ -5045,7 +5045,7 @@
         <v>0.0</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q68" t="n">
         <v>0.0</v>
@@ -5072,7 +5072,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>junk</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5091,7 +5091,7 @@
         <v>0.0</v>
       </c>
       <c r="G69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H69" t="n">
         <v>0.0</v>
@@ -5106,7 +5106,7 @@
         <v>0.0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M69" t="n">
         <v>0.0</v>
@@ -5145,7 +5145,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>qual</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5164,7 +5164,7 @@
         <v>0.0</v>
       </c>
       <c r="G70" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" t="n">
         <v>0.0</v>
@@ -5179,7 +5179,7 @@
         <v>0.0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M70" t="n">
         <v>0.0</v>
@@ -5218,7 +5218,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>poor</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5237,7 +5237,7 @@
         <v>0.0</v>
       </c>
       <c r="G71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" t="n">
         <v>0.0</v>
@@ -5246,7 +5246,7 @@
         <v>0.0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K71" t="n">
         <v>0.0</v>
@@ -5291,7 +5291,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wast</t>
+          <t>reliabl</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5310,7 +5310,7 @@
         <v>0.0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H72" t="n">
         <v>0.0</v>
@@ -5355,7 +5355,7 @@
         <v>0.0</v>
       </c>
       <c r="V72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W72" t="n">
         <v>0.0</v>
@@ -5364,7 +5364,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ugli</t>
+          <t>respons</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5383,7 +5383,7 @@
         <v>0.0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H73" t="n">
         <v>0.0</v>
@@ -5404,7 +5404,7 @@
         <v>0.0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O73" t="n">
         <v>0.0</v>
@@ -5437,7 +5437,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>breakabl</t>
+          <t>ripoff</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5456,7 +5456,7 @@
         <v>0.0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H74" t="n">
         <v>0.0</v>
@@ -5468,7 +5468,7 @@
         <v>0.0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L74" t="n">
         <v>0.0</v>
@@ -5510,7 +5510,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>worthless</t>
+          <t>rude</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5529,7 +5529,7 @@
         <v>0.0</v>
       </c>
       <c r="G75" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H75" t="n">
         <v>0.0</v>
@@ -5559,7 +5559,7 @@
         <v>0.0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R75" t="n">
         <v>0.0</v>
@@ -5583,7 +5583,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>flimsi</t>
+          <t>satisfi</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5602,7 +5602,7 @@
         <v>0.0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H76" t="n">
         <v>0.0</v>
@@ -5611,7 +5611,7 @@
         <v>0.0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K76" t="n">
         <v>0.0</v>
@@ -5656,7 +5656,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>useless</t>
+          <t>scam</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5675,7 +5675,7 @@
         <v>0.0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H77" t="n">
         <v>0.0</v>
@@ -5723,13 +5723,13 @@
         <v>0.0</v>
       </c>
       <c r="W77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>disappoint</t>
+          <t>secur</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5748,7 +5748,7 @@
         <v>0.0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H78" t="n">
         <v>0.0</v>
@@ -5793,7 +5793,7 @@
         <v>0.0</v>
       </c>
       <c r="V78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W78" t="n">
         <v>0.0</v>
@@ -5802,7 +5802,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>shoddi</t>
+          <t>skeptic</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5821,7 +5821,7 @@
         <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
         <v>0.0</v>
@@ -5869,17 +5869,17 @@
         <v>0.0</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mediocr</t>
+          <t>sleek</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C80" t="n">
         <v>0.0</v>
@@ -5894,7 +5894,7 @@
         <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
         <v>0.0</v>
@@ -5948,7 +5948,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>garbag</t>
+          <t>slow</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5967,7 +5967,7 @@
         <v>0.0</v>
       </c>
       <c r="G81" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H81" t="n">
         <v>0.0</v>
@@ -5991,7 +5991,7 @@
         <v>0.0</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P81" t="n">
         <v>0.0</v>
@@ -6021,11 +6021,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>short-liv</t>
+          <t>stylish</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C82" t="n">
         <v>0.0</v>
@@ -6040,7 +6040,7 @@
         <v>0.0</v>
       </c>
       <c r="G82" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H82" t="n">
         <v>0.0</v>
@@ -6094,7 +6094,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>trendi</t>
+          <t>support</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6116,7 +6116,7 @@
         <v>0.0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -6146,7 +6146,7 @@
         <v>0.0</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S83" t="n">
         <v>0.0</v>
@@ -6167,7 +6167,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>hip</t>
+          <t>suspici</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6189,7 +6189,7 @@
         <v>0.0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -6234,13 +6234,13 @@
         <v>0.0</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>awesom</t>
+          <t>sustain</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6256,13 +6256,13 @@
         <v>0.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
         <v>0.0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -6313,7 +6313,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cool</t>
+          <t>thrill</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6386,7 +6386,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>transpar</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6402,13 +6402,13 @@
         <v>0.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G87" t="n">
         <v>0.0</v>
       </c>
       <c r="H87" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I87" t="n">
         <v>0.0</v>
@@ -6459,11 +6459,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>stylish</t>
+          <t>trendi</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C88" t="n">
         <v>0.0</v>
@@ -6481,7 +6481,7 @@
         <v>0.0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I88" t="n">
         <v>0.0</v>
@@ -6532,7 +6532,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6554,7 +6554,7 @@
         <v>0.0</v>
       </c>
       <c r="H89" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I89" t="n">
         <v>0.0</v>
@@ -6590,7 +6590,7 @@
         <v>0.0</v>
       </c>
       <c r="T89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U89" t="n">
         <v>0.0</v>
@@ -6605,7 +6605,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>sexi</t>
+          <t>unaccept</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6627,7 +6627,7 @@
         <v>0.0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -6642,7 +6642,7 @@
         <v>0.0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N90" t="n">
         <v>0.0</v>
@@ -6678,14 +6678,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ordinari</t>
+          <t>uncool</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D91" t="n">
         <v>0.0</v>
@@ -6703,7 +6703,7 @@
         <v>0.0</v>
       </c>
       <c r="I91" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J91" t="n">
         <v>0.0</v>
@@ -6751,7 +6751,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>lame</t>
+          <t>uneth</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6770,13 +6770,13 @@
         <v>0.0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H92" t="n">
         <v>0.0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J92" t="n">
         <v>0.0</v>
@@ -6824,7 +6824,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ancient</t>
+          <t>unfair</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6849,13 +6849,13 @@
         <v>0.0</v>
       </c>
       <c r="I93" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J93" t="n">
         <v>0.0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L93" t="n">
         <v>0.0</v>
@@ -6897,7 +6897,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>averag</t>
+          <t>unfriendli</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6922,7 +6922,7 @@
         <v>0.0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J94" t="n">
         <v>0.0</v>
@@ -6946,7 +6946,7 @@
         <v>0.0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R94" t="n">
         <v>0.0</v>
@@ -6970,7 +6970,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>unhelp</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6998,7 +6998,7 @@
         <v>0.0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K95" t="n">
         <v>0.0</v>
@@ -7013,7 +7013,7 @@
         <v>0.0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P95" t="n">
         <v>0.0</v>
@@ -7043,7 +7043,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>excit</t>
+          <t>unimpress</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7068,10 +7068,10 @@
         <v>0.0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K96" t="n">
         <v>0.0</v>
@@ -7116,7 +7116,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>inspir</t>
+          <t>uninspir</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7129,7 +7129,7 @@
         <v>0.0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -7144,7 +7144,7 @@
         <v>0.0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K97" t="n">
         <v>0.0</v>
@@ -7189,7 +7189,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>happi</t>
+          <t>uniqu</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7199,7 +7199,7 @@
         <v>0.0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E98" t="n">
         <v>0.0</v>
@@ -7217,7 +7217,7 @@
         <v>0.0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K98" t="n">
         <v>0.0</v>
@@ -7262,7 +7262,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>thrill</t>
+          <t>unorigin</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7275,7 +7275,7 @@
         <v>0.0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -7290,7 +7290,7 @@
         <v>0.0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K99" t="n">
         <v>0.0</v>
@@ -7335,7 +7335,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>stimul</t>
+          <t>unprofession</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7363,7 +7363,7 @@
         <v>0.0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K100" t="n">
         <v>0.0</v>
@@ -7378,7 +7378,7 @@
         <v>0.0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P100" t="n">
         <v>0.0</v>
@@ -7408,7 +7408,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>live</t>
+          <t>unreason</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7436,10 +7436,10 @@
         <v>0.0</v>
       </c>
       <c r="J101" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L101" t="n">
         <v>0.0</v>
@@ -7481,7 +7481,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>unreli</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7509,7 +7509,7 @@
         <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
         <v>0.0</v>
@@ -7548,13 +7548,13 @@
         <v>0.0</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>bore</t>
+          <t>unrespons</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7585,7 +7585,7 @@
         <v>0.0</v>
       </c>
       <c r="K103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L103" t="n">
         <v>0.0</v>
@@ -7615,7 +7615,7 @@
         <v>0.0</v>
       </c>
       <c r="U103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V103" t="n">
         <v>0.0</v>
@@ -7627,7 +7627,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dull</t>
+          <t>unsustain</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7646,7 +7646,7 @@
         <v>0.0</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H104" t="n">
         <v>0.0</v>
@@ -7658,7 +7658,7 @@
         <v>0.0</v>
       </c>
       <c r="K104" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L104" t="n">
         <v>0.0</v>
@@ -7700,7 +7700,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>uninspir</t>
+          <t>unwelcom</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7731,7 +7731,7 @@
         <v>0.0</v>
       </c>
       <c r="K105" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L105" t="n">
         <v>0.0</v>
@@ -7755,7 +7755,7 @@
         <v>0.0</v>
       </c>
       <c r="S105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T105" t="n">
         <v>0.0</v>
@@ -7773,7 +7773,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>tire</t>
+          <t>valu</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7801,10 +7801,10 @@
         <v>0.0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K106" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L106" t="n">
         <v>0.0</v>
@@ -7846,7 +7846,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>bland</t>
+          <t>vibrant</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7868,7 +7868,7 @@
         <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I107" t="n">
         <v>0.0</v>
@@ -7877,7 +7877,7 @@
         <v>0.0</v>
       </c>
       <c r="K107" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L107" t="n">
         <v>0.0</v>
@@ -7919,7 +7919,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7953,7 +7953,7 @@
         <v>0.0</v>
       </c>
       <c r="L108" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M108" t="n">
         <v>0.0</v>
@@ -7965,7 +7965,7 @@
         <v>0.0</v>
       </c>
       <c r="P108" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q108" t="n">
         <v>0.0</v>
@@ -7992,7 +7992,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>warmth</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -8026,7 +8026,7 @@
         <v>0.0</v>
       </c>
       <c r="L109" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M109" t="n">
         <v>0.0</v>
@@ -8050,7 +8050,7 @@
         <v>0.0</v>
       </c>
       <c r="T109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U109" t="n">
         <v>0.0</v>
@@ -8065,7 +8065,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>invent</t>
+          <t>welcom</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -8099,7 +8099,7 @@
         <v>0.0</v>
       </c>
       <c r="L110" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M110" t="n">
         <v>0.0</v>
@@ -8117,7 +8117,7 @@
         <v>0.0</v>
       </c>
       <c r="R110" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S110" t="n">
         <v>0.0</v>
@@ -8138,7 +8138,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>advanc</t>
+          <t>worth</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8166,13 +8166,13 @@
         <v>0.0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K111" t="n">
         <v>0.0</v>
       </c>
       <c r="L111" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="M111" t="n">
         <v>0.0</v>
@@ -8206,5481 +8206,6 @@
       </c>
       <c r="W111" t="n">
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W112" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>futurist</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W113" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>intellig</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W114" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>progress</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W115" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>innov</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W116" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>technolog</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W117" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>creativ</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W118" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V119" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W119" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>cut-edg</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W120" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>old</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V121" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W121" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>old-fashion</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W122" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>tradit</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W123" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>uninterest</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W124" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>outdat</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W125" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>benevol</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W126" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>give</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W127" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>benefici</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N128" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W128" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>greedi</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O129" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W129" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>uncar</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W130" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>irrespons</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W131" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>evil</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O132" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W132" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>profit</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O133" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W133" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>famili</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P134" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W134" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>involv</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P135" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W135" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>commun</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P136" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V136" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W136" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V137" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W137" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>togeth</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P138" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V138" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W138" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>harmoni</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P139" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V139" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W139" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>cold</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U140" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V140" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W140" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V141" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W141" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>selfish</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W142" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>nice</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R143" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W143" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>friendli</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R144" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V144" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W144" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>pleasant</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R145" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V145" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W145" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R146" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V146" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W146" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>warm</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R147" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V147" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W147" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>welcom</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R148" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V148" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W148" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>trustworthi</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R149" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W149" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R150" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V150" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W150" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>accommod</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R151" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V151" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W151" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S152" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V152" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W152" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>unpleas</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S153" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V153" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W153" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>unhelp</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S154" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V154" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W154" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>unfriendli</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V155" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W155" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>aloof</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S156" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V156" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W156" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>nasti</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S157" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W157" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>arrog</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S158" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W158" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>connect</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T159" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V159" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W159" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W160" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V161" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W161" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>intim</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T162" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V162" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W162" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T163" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V163" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W163" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>profession</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T164" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V164" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W164" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>comfort</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V165" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W165" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>distant</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U166" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V166" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W166" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>imperson</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U167" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W167" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>disconnect</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U168" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W168" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>honest</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U169" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V169" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W169" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>reliabl</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U170" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V170" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W170" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U171" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V171" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W171" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>depend</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U172" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V172" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W172" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>trust</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U173" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V173" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W173" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>transpar</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U174" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V174" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W174" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>safe</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U175" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V175" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W175" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>honesti</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U176" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V176" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W176" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>principl</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U177" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V177" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W177" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>honor</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U178" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V178" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W178" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>dishonest</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V179" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W179" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>unreli</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V180" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W180" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>cheat</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V181" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W181" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>shadi</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V182" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W182" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>untrustwo</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V183" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W183" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>deceit</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V184" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W184" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>decept</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W185" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>lie</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W186" t="n">
-        <v>1.0</v>
       </c>
     </row>
   </sheetData>
